--- a/sql project.xlsx
+++ b/sql project.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\sql project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\SQL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AC7D0-B2B7-40DA-9B56-EA5764248CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4660B-6BCC-4519-8A08-F088534EE0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,12 +39,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>ProductID</t>
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>AddressType</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>StateProvinceID</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Mr. Reuben D'sa</t>
+  </si>
+  <si>
+    <t>Main Office</t>
+  </si>
+  <si>
+    <t>9950 Ferrand Drive, 9th Floor</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>M4B 1V4</t>
+  </si>
+  <si>
+    <t>Mr. Roger Harui</t>
+  </si>
+  <si>
+    <t>9927 N. Main St.</t>
+  </si>
+  <si>
+    <t>Tooele</t>
+  </si>
+  <si>
+    <t>Mr. Andrew Dixon</t>
+  </si>
+  <si>
+    <t>6555 Quince Road, Suite 2025</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Mr. Robert R. Vessa</t>
+  </si>
+  <si>
+    <t>72540 Blanco Rd.</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Mr. Ryan Calafato</t>
+  </si>
+  <si>
+    <t>254480 River Rd</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>V6B 3P7</t>
+  </si>
+  <si>
+    <t>Mr. Joseph N. Castellucio</t>
+  </si>
+  <si>
+    <t>2511 Baker Road</t>
+  </si>
+  <si>
+    <t>M4B 1V7</t>
+  </si>
+  <si>
+    <t>Mr. Kirk DeGrasse</t>
+  </si>
+  <si>
+    <t>6 Cotton Road</t>
+  </si>
+  <si>
+    <t>Nashua</t>
+  </si>
+  <si>
+    <t>Ms. Robin M. McGuigan</t>
+  </si>
+  <si>
+    <t>2500 University Avenue</t>
+  </si>
+  <si>
+    <t>M4B 1V5</t>
+  </si>
+  <si>
+    <t>Ms. Lindsey R. Camacho</t>
+  </si>
+  <si>
+    <t>S Sound Ctr Suite 25300</t>
+  </si>
+  <si>
+    <t>Lacey</t>
+  </si>
+  <si>
+    <t>Ms. Stacey M. Cereghino</t>
+  </si>
+  <si>
+    <t>220 Mercy Drive</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>SaleReason</t>
+  </si>
+  <si>
+    <t>SaleReasonType</t>
+  </si>
+  <si>
+    <t>TotalSalePerReason</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Best Performing Sales Reason</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>On Promotion</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Television  Advertisement</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Worst Performing Sales Reason</t>
   </si>
 </sst>
 </file>
@@ -47,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +242,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -105,13 +304,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +526,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -366,6 +573,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -408,6 +620,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -450,6 +667,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -492,6 +714,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -537,6 +764,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -582,6 +814,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -627,6 +864,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -672,6 +914,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1816-4E49-8FC1-A95BBF817687}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -935,7 +1182,1223 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top 10 Customer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-1560000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mr. Reuben D'sa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mr. Roger Harui</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mr. Andrew Dixon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mr. Robert R. Vessa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mr. Ryan Calafato</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mr. Joseph N. Castellucio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mr. Kirk DeGrasse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ms. Robin M. McGuigan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ms. Lindsey R. Camacho</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ms. Stacey M. Cereghino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 2'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1179857.4657000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1179475.8399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1134747.4413000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1084439.0264999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1074154.3034999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1045197.0498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1005539.7181000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>984324.04729999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>983871.93299999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>979881.34909999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CE0-4ED3-9220-21C652AC5845}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mr. Reuben D'sa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mr. Roger Harui</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mr. Andrew Dixon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mr. Robert R. Vessa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mr. Ryan Calafato</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mr. Joseph N. Castellucio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mr. Kirk DeGrasse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ms. Robin M. McGuigan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ms. Lindsey R. Camacho</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ms. Stacey M. Cereghino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 2'!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CE0-4ED3-9220-21C652AC5845}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="72"/>
+        <c:axId val="1928814432"/>
+        <c:axId val="1928813184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1928814432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928813184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1928813184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928814432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Best and Worst Performing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Reasons</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6288744005279435E-2"/>
+          <c:y val="7.4208847981264051E-2"/>
+          <c:w val="0.90869624097970558"/>
+          <c:h val="0.86351548093877162"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Question 3'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NULL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>On Promotion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Manufacturer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quality</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Review</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Television  Advertisement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D945-4E40-B5E0-0CFE830A0642}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D945-4E40-B5E0-0CFE830A0642}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:bevel/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 3'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NULL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Price</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>On Promotion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Manufacturer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quality</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Review</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Television  Advertisement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 3'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>115922288.767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12128306.4432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7029821.1380000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6627925.0045999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6132636.0083999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1872844.6283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274574.13650000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30360.805899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D945-4E40-B5E0-0CFE830A0642}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="122951712"/>
+        <c:axId val="275514688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="122951712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275514688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275514688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122951712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1466,6 +2929,998 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1585,6 +4040,189 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5906879D-5430-49FD-816C-1F5F1445A54E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD901E15-F02F-43F6-B59A-8AAD19559225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Question 2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>CustomerName</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Mr. Reuben D'sa</v>
+          </cell>
+          <cell r="G2">
+            <v>1179857.4657000001</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Mr. Roger Harui</v>
+          </cell>
+          <cell r="G3">
+            <v>1179475.8399</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Mr. Andrew Dixon</v>
+          </cell>
+          <cell r="G4">
+            <v>1134747.4413000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Mr. Robert R. Vessa</v>
+          </cell>
+          <cell r="G5">
+            <v>1084439.0264999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Mr. Ryan Calafato</v>
+          </cell>
+          <cell r="G6">
+            <v>1074154.3034999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Mr. Joseph N. Castellucio</v>
+          </cell>
+          <cell r="G7">
+            <v>1045197.0498</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Mr. Kirk DeGrasse</v>
+          </cell>
+          <cell r="G8">
+            <v>1005539.7181000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Ms. Robin M. McGuigan</v>
+          </cell>
+          <cell r="G9">
+            <v>984324.04729999998</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Ms. Lindsey R. Camacho</v>
+          </cell>
+          <cell r="G10">
+            <v>983871.93299999996</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Ms. Stacey M. Cereghino</v>
+          </cell>
+          <cell r="G11">
+            <v>979881.34909999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1886,7 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44B4F92-9B16-4E20-A69B-CA4BA30BC414}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1989,4 +4627,430 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55C92BC-D3F6-4899-89AF-E5DA9317F36A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1179857.4657000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5">
+        <v>84074</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1179475.8399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>72</v>
+      </c>
+      <c r="F4" s="5">
+        <v>38103</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1134747.4413000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5">
+        <v>78204</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1084439.0264999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1074154.3034999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1045197.0498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3064</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1005539.7181000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5">
+        <v>984324.04729999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5">
+        <v>98503</v>
+      </c>
+      <c r="G10" s="5">
+        <v>983871.93299999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5">
+        <v>75040</v>
+      </c>
+      <c r="G11" s="5">
+        <v>979881.34909999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C27E2FD-969C-4754-BEC9-CC00A75AC250}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6">
+        <v>115922288.767</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12128306.4432</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7029821.1380000003</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6627925.0045999996</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6132636.0083999997</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1872844.6283</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6">
+        <v>274574.13650000002</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30360.805899999999</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/sql project.xlsx
+++ b/sql project.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\SQL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4660B-6BCC-4519-8A08-F088534EE0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A456C8-9181-4BD6-A5FE-AA36FC8CC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
     <sheet name="Question 2" sheetId="2" r:id="rId2"/>
     <sheet name="Question 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Question_4" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
   <si>
     <t>ProductID</t>
   </si>
@@ -211,6 +212,27 @@
   <si>
     <t>Worst Performing Sales Reason</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>FullDate</t>
+  </si>
+  <si>
+    <t>ShipMethod</t>
+  </si>
+  <si>
+    <t>AverageSale</t>
+  </si>
+  <si>
+    <t>XRQ - TRUCK GROUND</t>
+  </si>
+  <si>
+    <t>CARGO TRANSPORT 5</t>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -314,6 +336,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,6 +2342,895 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Monthly Sale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>  For Each Shiping Methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23271425661815445"/>
+          <c:y val="2.7381035444485263E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_4!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XRQ - TRUCK GROUND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_4!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_4!$E$2:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3643.2705000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3555.8791999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3619.8155999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3562.0124000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3482.7442999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3572.3809999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3593.1624000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3419.0983000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3550.0565999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3612.2051000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3487.9521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3426.6066000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2484.2901000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2172.3735999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1997.9227000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1986.6987999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1978.0948000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1893.3081</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1972.6478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014.2934</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1949.2235000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1951.6990000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1841.1898000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1886.6015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1926.7420999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>714.18269999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>685.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>690.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>747.88689999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>897.42269999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>826.43510000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>859.21749999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>850.18190000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>849.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>942.1327</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>964.18730000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>432.21510000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.877899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E43-48DE-A6F4-352764D7C7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_4!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CARGO TRANSPORT 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_4!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_4!$G$2:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>17085.9342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27282.308700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25822.524700000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28043.354899999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34321.177100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35917.127099999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23659.430899999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31926.209900000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30176.744900000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31687.943800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35459.408100000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26445.5605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44846.882799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34750.1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34733.798999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32810.966200000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30506.149799999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25505.182100000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26901.986000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23978.717199999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19576.0481</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33544.516799999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28567.332299999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25926.122899999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38965.805899999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31394.973699999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32081.923500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30802.724900000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25913.511200000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26529.588100000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23021.276099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20510.271199999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20767.865399999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31287.4022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24721.2847</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25279.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E43-48DE-A6F4-352764D7C7FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1862013504"/>
+        <c:axId val="1862003104"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1862013504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862003104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1862003104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862013504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2438,6 +3351,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
@@ -3921,6 +4874,502 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4126,97 +5575,479 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212034</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A923C206-216D-46F8-B53C-657A6437F1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Question 2"/>
+      <sheetName val="Question_4"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>CustomerName</v>
-          </cell>
-        </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>Mr. Reuben D'sa</v>
+          <cell r="C2">
+            <v>37073</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>XRQ - TRUCK GROUND</v>
+          </cell>
+          <cell r="E2">
+            <v>3643.2705000000001</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>CARGO TRANSPORT 5</v>
           </cell>
           <cell r="G2">
-            <v>1179857.4657000001</v>
+            <v>17085.9342</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>Mr. Roger Harui</v>
+          <cell r="C3">
+            <v>37104</v>
+          </cell>
+          <cell r="E3">
+            <v>3555.8791999999999</v>
           </cell>
           <cell r="G3">
-            <v>1179475.8399</v>
+            <v>27282.308700000001</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>Mr. Andrew Dixon</v>
+          <cell r="C4">
+            <v>37135</v>
+          </cell>
+          <cell r="E4">
+            <v>3619.8155999999999</v>
           </cell>
           <cell r="G4">
-            <v>1134747.4413000001</v>
+            <v>25822.524700000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>Mr. Robert R. Vessa</v>
+          <cell r="C5">
+            <v>37165</v>
+          </cell>
+          <cell r="E5">
+            <v>3562.0124000000001</v>
           </cell>
           <cell r="G5">
-            <v>1084439.0264999999</v>
+            <v>28043.354899999998</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>Mr. Ryan Calafato</v>
+          <cell r="C6">
+            <v>37196</v>
+          </cell>
+          <cell r="E6">
+            <v>3482.7442999999998</v>
           </cell>
           <cell r="G6">
-            <v>1074154.3034999999</v>
+            <v>34321.177100000001</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>Mr. Joseph N. Castellucio</v>
+          <cell r="C7">
+            <v>37226</v>
+          </cell>
+          <cell r="E7">
+            <v>3572.3809999999999</v>
           </cell>
           <cell r="G7">
-            <v>1045197.0498</v>
+            <v>35917.127099999998</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>Mr. Kirk DeGrasse</v>
+          <cell r="C8">
+            <v>37257</v>
+          </cell>
+          <cell r="E8">
+            <v>3593.1624000000002</v>
           </cell>
           <cell r="G8">
-            <v>1005539.7181000001</v>
+            <v>23659.430899999999</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>Ms. Robin M. McGuigan</v>
+          <cell r="C9">
+            <v>37288</v>
+          </cell>
+          <cell r="E9">
+            <v>3419.0983000000001</v>
           </cell>
           <cell r="G9">
-            <v>984324.04729999998</v>
+            <v>31926.209900000002</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>Ms. Lindsey R. Camacho</v>
+          <cell r="C10">
+            <v>37316</v>
+          </cell>
+          <cell r="E10">
+            <v>3550.0565999999999</v>
           </cell>
           <cell r="G10">
-            <v>983871.93299999996</v>
+            <v>30176.744900000002</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>Ms. Stacey M. Cereghino</v>
+          <cell r="C11">
+            <v>37347</v>
+          </cell>
+          <cell r="E11">
+            <v>3612.2051000000001</v>
           </cell>
           <cell r="G11">
-            <v>979881.34909999999</v>
+            <v>31687.943800000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>37377</v>
+          </cell>
+          <cell r="E12">
+            <v>3487.9521</v>
+          </cell>
+          <cell r="G12">
+            <v>35459.408100000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>37408</v>
+          </cell>
+          <cell r="E13">
+            <v>3426.6066000000001</v>
+          </cell>
+          <cell r="G13">
+            <v>26445.5605</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>37438</v>
+          </cell>
+          <cell r="E14">
+            <v>2484.2901000000002</v>
+          </cell>
+          <cell r="G14">
+            <v>44846.882799999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>37469</v>
+          </cell>
+          <cell r="E15">
+            <v>2172.3735999999999</v>
+          </cell>
+          <cell r="G15">
+            <v>34750.1993</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>37500</v>
+          </cell>
+          <cell r="E16">
+            <v>1997.9227000000001</v>
+          </cell>
+          <cell r="G16">
+            <v>34733.798999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>37530</v>
+          </cell>
+          <cell r="E17">
+            <v>1986.6987999999999</v>
+          </cell>
+          <cell r="G17">
+            <v>32810.966200000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>37561</v>
+          </cell>
+          <cell r="E18">
+            <v>1978.0948000000001</v>
+          </cell>
+          <cell r="G18">
+            <v>30506.149799999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>37591</v>
+          </cell>
+          <cell r="E19">
+            <v>1893.3081</v>
+          </cell>
+          <cell r="G19">
+            <v>25505.182100000002</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>37622</v>
+          </cell>
+          <cell r="E20">
+            <v>1972.6478</v>
+          </cell>
+          <cell r="G20">
+            <v>26901.986000000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>37653</v>
+          </cell>
+          <cell r="E21">
+            <v>2014.2934</v>
+          </cell>
+          <cell r="G21">
+            <v>23978.717199999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>37681</v>
+          </cell>
+          <cell r="E22">
+            <v>1949.2235000000001</v>
+          </cell>
+          <cell r="G22">
+            <v>19576.0481</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>37712</v>
+          </cell>
+          <cell r="E23">
+            <v>1951.6990000000001</v>
+          </cell>
+          <cell r="G23">
+            <v>33544.516799999998</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>37742</v>
+          </cell>
+          <cell r="E24">
+            <v>1841.1898000000001</v>
+          </cell>
+          <cell r="G24">
+            <v>28567.332299999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>37773</v>
+          </cell>
+          <cell r="E25">
+            <v>1886.6015</v>
+          </cell>
+          <cell r="G25">
+            <v>25926.122899999998</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>37803</v>
+          </cell>
+          <cell r="E26">
+            <v>1926.7420999999999</v>
+          </cell>
+          <cell r="G26">
+            <v>38965.805899999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>37834</v>
+          </cell>
+          <cell r="E27">
+            <v>714.18269999999995</v>
+          </cell>
+          <cell r="G27">
+            <v>31394.973699999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>37865</v>
+          </cell>
+          <cell r="E28">
+            <v>685.13400000000001</v>
+          </cell>
+          <cell r="G28">
+            <v>32081.923500000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>37895</v>
+          </cell>
+          <cell r="E29">
+            <v>690.66800000000001</v>
+          </cell>
+          <cell r="G29">
+            <v>30802.724900000001</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>37926</v>
+          </cell>
+          <cell r="E30">
+            <v>747.88689999999997</v>
+          </cell>
+          <cell r="G30">
+            <v>25913.511200000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>37956</v>
+          </cell>
+          <cell r="E31">
+            <v>897.42269999999996</v>
+          </cell>
+          <cell r="G31">
+            <v>26529.588100000001</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>37987</v>
+          </cell>
+          <cell r="E32">
+            <v>826.43510000000003</v>
+          </cell>
+          <cell r="G32">
+            <v>23021.276099999999</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>38018</v>
+          </cell>
+          <cell r="E33">
+            <v>859.21749999999997</v>
+          </cell>
+          <cell r="G33">
+            <v>20510.271199999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>38047</v>
+          </cell>
+          <cell r="E34">
+            <v>850.18190000000004</v>
+          </cell>
+          <cell r="G34">
+            <v>20767.865399999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>38078</v>
+          </cell>
+          <cell r="E35">
+            <v>849.60500000000002</v>
+          </cell>
+          <cell r="G35">
+            <v>31287.4022</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>38108</v>
+          </cell>
+          <cell r="E36">
+            <v>942.1327</v>
+          </cell>
+          <cell r="G36">
+            <v>24721.2847</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>38139</v>
+          </cell>
+          <cell r="E37">
+            <v>964.18730000000005</v>
+          </cell>
+          <cell r="G37">
+            <v>25279.03</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>38169</v>
+          </cell>
+          <cell r="E38">
+            <v>432.21510000000001</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>NULL</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>38200</v>
+          </cell>
+          <cell r="E39">
+            <v>64.877899999999997</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>NULL</v>
           </cell>
         </row>
       </sheetData>
@@ -4911,7 +6742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C27E2FD-969C-4754-BEC9-CC00A75AC250}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
@@ -5053,4 +6884,927 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230B1DF1-1582-49A6-9915-175C85C8ED32}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>37073</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3643.2705000000001</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="8">
+        <v>17085.9342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>37104</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3555.8791999999999</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="8">
+        <v>27282.308700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>37135</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3619.8155999999999</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="8">
+        <v>25822.524700000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>37165</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3562.0124000000001</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="8">
+        <v>28043.354899999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>37196</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3482.7442999999998</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="8">
+        <v>34321.177100000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>37226</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3572.3809999999999</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="8">
+        <v>35917.127099999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>37257</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3593.1624000000002</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="8">
+        <v>23659.430899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>37288</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3419.0983000000001</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="8">
+        <v>31926.209900000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>37316</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3550.0565999999999</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="8">
+        <v>30176.744900000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>37347</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3612.2051000000001</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="8">
+        <v>31687.943800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>37377</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3487.9521</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="8">
+        <v>35459.408100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>37408</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3426.6066000000001</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="8">
+        <v>26445.5605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8">
+        <v>37438</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2484.2901000000002</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="8">
+        <v>44846.882799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="8">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>37469</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2172.3735999999999</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="8">
+        <v>34750.1993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8">
+        <v>37500</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1997.9227000000001</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="8">
+        <v>34733.798999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8">
+        <v>37530</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1986.6987999999999</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="8">
+        <v>32810.966200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="8">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>37561</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1978.0948000000001</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="8">
+        <v>30506.149799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>37591</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1893.3081</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="8">
+        <v>25505.182100000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>37622</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1972.6478</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="8">
+        <v>26901.986000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>37653</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2014.2934</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="8">
+        <v>23978.717199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>37681</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1949.2235000000001</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="8">
+        <v>19576.0481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>37712</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1951.6990000000001</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="8">
+        <v>33544.516799999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="8">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>37742</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1841.1898000000001</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="8">
+        <v>28567.332299999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8">
+        <v>37773</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1886.6015</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="8">
+        <v>25926.122899999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B26" s="8">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8">
+        <v>37803</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1926.7420999999999</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="8">
+        <v>38965.805899999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B27" s="8">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8">
+        <v>37834</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="8">
+        <v>714.18269999999995</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="8">
+        <v>31394.973699999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9</v>
+      </c>
+      <c r="C28" s="8">
+        <v>37865</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8">
+        <v>685.13400000000001</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="8">
+        <v>32081.923500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B29" s="8">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8">
+        <v>37895</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="8">
+        <v>690.66800000000001</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="8">
+        <v>30802.724900000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="8">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8">
+        <v>37926</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="8">
+        <v>747.88689999999997</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="8">
+        <v>25913.511200000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B31" s="8">
+        <v>12</v>
+      </c>
+      <c r="C31" s="8">
+        <v>37956</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="8">
+        <v>897.42269999999996</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="8">
+        <v>26529.588100000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>37987</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="8">
+        <v>826.43510000000003</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="8">
+        <v>23021.276099999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>38018</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="8">
+        <v>859.21749999999997</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="8">
+        <v>20510.271199999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <v>38047</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8">
+        <v>850.18190000000004</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="8">
+        <v>20767.865399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8">
+        <v>38078</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="8">
+        <v>849.60500000000002</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="8">
+        <v>31287.4022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B36" s="8">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>38108</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="8">
+        <v>942.1327</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="8">
+        <v>24721.2847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>38139</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="8">
+        <v>964.18730000000005</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="8">
+        <v>25279.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="8">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8">
+        <v>38169</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="8">
+        <v>432.21510000000001</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B39" s="8">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8">
+        <v>38200</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="8">
+        <v>64.877899999999997</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/sql project.xlsx
+++ b/sql project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\SQL-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\GitHub\SQL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A456C8-9181-4BD6-A5FE-AA36FC8CC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A8B0A-366D-4EB8-B164-3A1745642D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Question 3" sheetId="3" r:id="rId3"/>
     <sheet name="Question_4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>ProductID</t>
   </si>
@@ -232,14 +229,51 @@
   </si>
   <si>
     <t>CARGO TRANSPORT 5</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -326,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -338,6 +372,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2488,121 +2525,121 @@
             <c:numRef>
               <c:f>Question_4!$C$2:$C$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37073</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37135</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>37257</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37316</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>37377</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37500</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>37622</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>37681</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>37742</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>37865</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>37987</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>38108</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>38139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38169</c:v>
+                  <c:v>38047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38200</c:v>
+                  <c:v>38108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,121 +2810,121 @@
             <c:numRef>
               <c:f>Question_4!$C$2:$C$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37073</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37135</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>37257</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37316</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>37377</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37500</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>37622</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>37681</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>37742</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>37865</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>37987</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>38108</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>38139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38169</c:v>
+                  <c:v>38047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38200</c:v>
+                  <c:v>38108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5618,444 +5655,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Question_4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>37073</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>XRQ - TRUCK GROUND</v>
-          </cell>
-          <cell r="E2">
-            <v>3643.2705000000001</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>CARGO TRANSPORT 5</v>
-          </cell>
-          <cell r="G2">
-            <v>17085.9342</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>37104</v>
-          </cell>
-          <cell r="E3">
-            <v>3555.8791999999999</v>
-          </cell>
-          <cell r="G3">
-            <v>27282.308700000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>37135</v>
-          </cell>
-          <cell r="E4">
-            <v>3619.8155999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>25822.524700000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>37165</v>
-          </cell>
-          <cell r="E5">
-            <v>3562.0124000000001</v>
-          </cell>
-          <cell r="G5">
-            <v>28043.354899999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>37196</v>
-          </cell>
-          <cell r="E6">
-            <v>3482.7442999999998</v>
-          </cell>
-          <cell r="G6">
-            <v>34321.177100000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>37226</v>
-          </cell>
-          <cell r="E7">
-            <v>3572.3809999999999</v>
-          </cell>
-          <cell r="G7">
-            <v>35917.127099999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>37257</v>
-          </cell>
-          <cell r="E8">
-            <v>3593.1624000000002</v>
-          </cell>
-          <cell r="G8">
-            <v>23659.430899999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>37288</v>
-          </cell>
-          <cell r="E9">
-            <v>3419.0983000000001</v>
-          </cell>
-          <cell r="G9">
-            <v>31926.209900000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>37316</v>
-          </cell>
-          <cell r="E10">
-            <v>3550.0565999999999</v>
-          </cell>
-          <cell r="G10">
-            <v>30176.744900000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>37347</v>
-          </cell>
-          <cell r="E11">
-            <v>3612.2051000000001</v>
-          </cell>
-          <cell r="G11">
-            <v>31687.943800000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>37377</v>
-          </cell>
-          <cell r="E12">
-            <v>3487.9521</v>
-          </cell>
-          <cell r="G12">
-            <v>35459.408100000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>37408</v>
-          </cell>
-          <cell r="E13">
-            <v>3426.6066000000001</v>
-          </cell>
-          <cell r="G13">
-            <v>26445.5605</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>37438</v>
-          </cell>
-          <cell r="E14">
-            <v>2484.2901000000002</v>
-          </cell>
-          <cell r="G14">
-            <v>44846.882799999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>37469</v>
-          </cell>
-          <cell r="E15">
-            <v>2172.3735999999999</v>
-          </cell>
-          <cell r="G15">
-            <v>34750.1993</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>37500</v>
-          </cell>
-          <cell r="E16">
-            <v>1997.9227000000001</v>
-          </cell>
-          <cell r="G16">
-            <v>34733.798999999999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>37530</v>
-          </cell>
-          <cell r="E17">
-            <v>1986.6987999999999</v>
-          </cell>
-          <cell r="G17">
-            <v>32810.966200000003</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>37561</v>
-          </cell>
-          <cell r="E18">
-            <v>1978.0948000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>30506.149799999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>37591</v>
-          </cell>
-          <cell r="E19">
-            <v>1893.3081</v>
-          </cell>
-          <cell r="G19">
-            <v>25505.182100000002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>37622</v>
-          </cell>
-          <cell r="E20">
-            <v>1972.6478</v>
-          </cell>
-          <cell r="G20">
-            <v>26901.986000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>37653</v>
-          </cell>
-          <cell r="E21">
-            <v>2014.2934</v>
-          </cell>
-          <cell r="G21">
-            <v>23978.717199999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>37681</v>
-          </cell>
-          <cell r="E22">
-            <v>1949.2235000000001</v>
-          </cell>
-          <cell r="G22">
-            <v>19576.0481</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>37712</v>
-          </cell>
-          <cell r="E23">
-            <v>1951.6990000000001</v>
-          </cell>
-          <cell r="G23">
-            <v>33544.516799999998</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>37742</v>
-          </cell>
-          <cell r="E24">
-            <v>1841.1898000000001</v>
-          </cell>
-          <cell r="G24">
-            <v>28567.332299999998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>37773</v>
-          </cell>
-          <cell r="E25">
-            <v>1886.6015</v>
-          </cell>
-          <cell r="G25">
-            <v>25926.122899999998</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>37803</v>
-          </cell>
-          <cell r="E26">
-            <v>1926.7420999999999</v>
-          </cell>
-          <cell r="G26">
-            <v>38965.805899999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>37834</v>
-          </cell>
-          <cell r="E27">
-            <v>714.18269999999995</v>
-          </cell>
-          <cell r="G27">
-            <v>31394.973699999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>37865</v>
-          </cell>
-          <cell r="E28">
-            <v>685.13400000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>32081.923500000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>37895</v>
-          </cell>
-          <cell r="E29">
-            <v>690.66800000000001</v>
-          </cell>
-          <cell r="G29">
-            <v>30802.724900000001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>37926</v>
-          </cell>
-          <cell r="E30">
-            <v>747.88689999999997</v>
-          </cell>
-          <cell r="G30">
-            <v>25913.511200000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>37956</v>
-          </cell>
-          <cell r="E31">
-            <v>897.42269999999996</v>
-          </cell>
-          <cell r="G31">
-            <v>26529.588100000001</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>37987</v>
-          </cell>
-          <cell r="E32">
-            <v>826.43510000000003</v>
-          </cell>
-          <cell r="G32">
-            <v>23021.276099999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>38018</v>
-          </cell>
-          <cell r="E33">
-            <v>859.21749999999997</v>
-          </cell>
-          <cell r="G33">
-            <v>20510.271199999999</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>38047</v>
-          </cell>
-          <cell r="E34">
-            <v>850.18190000000004</v>
-          </cell>
-          <cell r="G34">
-            <v>20767.865399999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>38078</v>
-          </cell>
-          <cell r="E35">
-            <v>849.60500000000002</v>
-          </cell>
-          <cell r="G35">
-            <v>31287.4022</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>38108</v>
-          </cell>
-          <cell r="E36">
-            <v>942.1327</v>
-          </cell>
-          <cell r="G36">
-            <v>24721.2847</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>38139</v>
-          </cell>
-          <cell r="E37">
-            <v>964.18730000000005</v>
-          </cell>
-          <cell r="G37">
-            <v>25279.03</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>38169</v>
-          </cell>
-          <cell r="E38">
-            <v>432.21510000000001</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>NULL</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>38200</v>
-          </cell>
-          <cell r="E39">
-            <v>64.877899999999997</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>NULL</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6890,19 +6489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230B1DF1-1582-49A6-9915-175C85C8ED32}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -6912,7 +6511,7 @@
       <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6932,11 +6531,11 @@
       <c r="A2" s="8">
         <v>2001</v>
       </c>
-      <c r="B2" s="8">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8">
-        <v>37073</v>
+      <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10">
+        <v>37104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>62</v>
@@ -6955,11 +6554,11 @@
       <c r="A3" s="8">
         <v>2001</v>
       </c>
-      <c r="B3" s="8">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8">
-        <v>37104</v>
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="10">
+        <v>37226</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>62</v>
@@ -6978,11 +6577,11 @@
       <c r="A4" s="8">
         <v>2001</v>
       </c>
-      <c r="B4" s="8">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8">
-        <v>37135</v>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10">
+        <v>37073</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>62</v>
@@ -7001,11 +6600,11 @@
       <c r="A5" s="8">
         <v>2001</v>
       </c>
-      <c r="B5" s="8">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>37165</v>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10">
+        <v>37196</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>62</v>
@@ -7024,11 +6623,11 @@
       <c r="A6" s="8">
         <v>2001</v>
       </c>
-      <c r="B6" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8">
-        <v>37196</v>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="10">
+        <v>37165</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>62</v>
@@ -7047,11 +6646,11 @@
       <c r="A7" s="8">
         <v>2001</v>
       </c>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>37226</v>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10">
+        <v>37135</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>62</v>
@@ -7070,11 +6669,11 @@
       <c r="A8" s="8">
         <v>2002</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>37257</v>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="10">
+        <v>37347</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>62</v>
@@ -7093,11 +6692,11 @@
       <c r="A9" s="8">
         <v>2002</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>37288</v>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="10">
+        <v>37469</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>62</v>
@@ -7116,11 +6715,11 @@
       <c r="A10" s="8">
         <v>2002</v>
       </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>37316</v>
+      <c r="B10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10">
+        <v>37591</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>62</v>
@@ -7139,11 +6738,11 @@
       <c r="A11" s="8">
         <v>2002</v>
       </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>37347</v>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="10">
+        <v>37288</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>62</v>
@@ -7162,11 +6761,11 @@
       <c r="A12" s="8">
         <v>2002</v>
       </c>
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>37377</v>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="10">
+        <v>37257</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>62</v>
@@ -7185,11 +6784,11 @@
       <c r="A13" s="8">
         <v>2002</v>
       </c>
-      <c r="B13" s="8">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8">
-        <v>37408</v>
+      <c r="B13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="10">
+        <v>37438</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>62</v>
@@ -7208,11 +6807,11 @@
       <c r="A14" s="8">
         <v>2002</v>
       </c>
-      <c r="B14" s="8">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
-        <v>37438</v>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="10">
+        <v>37408</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>62</v>
@@ -7231,11 +6830,11 @@
       <c r="A15" s="8">
         <v>2002</v>
       </c>
-      <c r="B15" s="8">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8">
-        <v>37469</v>
+      <c r="B15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="10">
+        <v>37316</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>62</v>
@@ -7254,11 +6853,11 @@
       <c r="A16" s="8">
         <v>2002</v>
       </c>
-      <c r="B16" s="8">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8">
-        <v>37500</v>
+      <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10">
+        <v>37377</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>62</v>
@@ -7277,11 +6876,11 @@
       <c r="A17" s="8">
         <v>2002</v>
       </c>
-      <c r="B17" s="8">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8">
-        <v>37530</v>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="10">
+        <v>37561</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>62</v>
@@ -7300,11 +6899,11 @@
       <c r="A18" s="8">
         <v>2002</v>
       </c>
-      <c r="B18" s="8">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
-        <v>37561</v>
+      <c r="B18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="10">
+        <v>37530</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>62</v>
@@ -7323,11 +6922,11 @@
       <c r="A19" s="8">
         <v>2002</v>
       </c>
-      <c r="B19" s="8">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8">
-        <v>37591</v>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10">
+        <v>37500</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>62</v>
@@ -7346,11 +6945,11 @@
       <c r="A20" s="8">
         <v>2003</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>37622</v>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="10">
+        <v>37712</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>62</v>
@@ -7369,11 +6968,11 @@
       <c r="A21" s="8">
         <v>2003</v>
       </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8">
-        <v>37653</v>
+      <c r="B21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="10">
+        <v>37834</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>62</v>
@@ -7392,11 +6991,11 @@
       <c r="A22" s="8">
         <v>2003</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>37681</v>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="10">
+        <v>37956</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>62</v>
@@ -7415,11 +7014,11 @@
       <c r="A23" s="8">
         <v>2003</v>
       </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
-        <v>37712</v>
+      <c r="B23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10">
+        <v>37653</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>62</v>
@@ -7438,11 +7037,11 @@
       <c r="A24" s="8">
         <v>2003</v>
       </c>
-      <c r="B24" s="8">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8">
-        <v>37742</v>
+      <c r="B24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10">
+        <v>37622</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>62</v>
@@ -7461,11 +7060,11 @@
       <c r="A25" s="8">
         <v>2003</v>
       </c>
-      <c r="B25" s="8">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8">
-        <v>37773</v>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="10">
+        <v>37803</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>62</v>
@@ -7484,11 +7083,11 @@
       <c r="A26" s="8">
         <v>2003</v>
       </c>
-      <c r="B26" s="8">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8">
-        <v>37803</v>
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="10">
+        <v>37773</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>62</v>
@@ -7507,11 +7106,11 @@
       <c r="A27" s="8">
         <v>2003</v>
       </c>
-      <c r="B27" s="8">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8">
-        <v>37834</v>
+      <c r="B27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10">
+        <v>37681</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>62</v>
@@ -7530,11 +7129,11 @@
       <c r="A28" s="8">
         <v>2003</v>
       </c>
-      <c r="B28" s="8">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8">
-        <v>37865</v>
+      <c r="B28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10">
+        <v>37742</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>62</v>
@@ -7553,11 +7152,11 @@
       <c r="A29" s="8">
         <v>2003</v>
       </c>
-      <c r="B29" s="8">
-        <v>10</v>
-      </c>
-      <c r="C29" s="8">
-        <v>37895</v>
+      <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="10">
+        <v>37926</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>62</v>
@@ -7576,11 +7175,11 @@
       <c r="A30" s="8">
         <v>2003</v>
       </c>
-      <c r="B30" s="8">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8">
-        <v>37926</v>
+      <c r="B30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="10">
+        <v>37895</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>62</v>
@@ -7599,11 +7198,11 @@
       <c r="A31" s="8">
         <v>2003</v>
       </c>
-      <c r="B31" s="8">
-        <v>12</v>
-      </c>
-      <c r="C31" s="8">
-        <v>37956</v>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="10">
+        <v>37865</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>62</v>
@@ -7622,11 +7221,11 @@
       <c r="A32" s="8">
         <v>2004</v>
       </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
-        <v>37987</v>
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="10">
+        <v>38078</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>62</v>
@@ -7645,11 +7244,11 @@
       <c r="A33" s="8">
         <v>2004</v>
       </c>
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8">
-        <v>38018</v>
+      <c r="B33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="10">
+        <v>38200</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>62</v>
@@ -7668,11 +7267,11 @@
       <c r="A34" s="8">
         <v>2004</v>
       </c>
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8">
-        <v>38047</v>
+      <c r="B34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="10">
+        <v>38018</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>62</v>
@@ -7691,11 +7290,11 @@
       <c r="A35" s="8">
         <v>2004</v>
       </c>
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8">
-        <v>38078</v>
+      <c r="B35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="10">
+        <v>37987</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>62</v>
@@ -7714,11 +7313,11 @@
       <c r="A36" s="8">
         <v>2004</v>
       </c>
-      <c r="B36" s="8">
-        <v>5</v>
-      </c>
-      <c r="C36" s="8">
-        <v>38108</v>
+      <c r="B36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="10">
+        <v>38169</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>62</v>
@@ -7737,10 +7336,10 @@
       <c r="A37" s="8">
         <v>2004</v>
       </c>
-      <c r="B37" s="8">
-        <v>6</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10">
         <v>38139</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -7760,11 +7359,11 @@
       <c r="A38" s="8">
         <v>2004</v>
       </c>
-      <c r="B38" s="8">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8">
-        <v>38169</v>
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="10">
+        <v>38047</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>62</v>
@@ -7783,11 +7382,11 @@
       <c r="A39" s="8">
         <v>2004</v>
       </c>
-      <c r="B39" s="8">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8">
-        <v>38200</v>
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="10">
+        <v>38108</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>62</v>

--- a/sql project.xlsx
+++ b/sql project.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\GitHub\SQL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E54FA-14F2-4107-BFCE-F67D98BFE564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCEB819-E0DA-4C5F-87D5-73A72B19C706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
     <sheet name="Question 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Question 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Question 3" sheetId="6" r:id="rId3"/>
     <sheet name="Question_4" sheetId="4" r:id="rId4"/>
     <sheet name="Question_5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1330,6 +1333,597 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>Number of sales made without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>card for each month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleByOther</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$U$2:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3030-4E68-942E-BD081794709B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="699512880"/>
+        <c:axId val="699514960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="699512880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699514960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="699514960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699512880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1959,7 +2553,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Reasons</a:t>
+              <a:t> Reasons including No Reason Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2112,7 +2706,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D945-4E40-B5E0-0CFE830A0642}"/>
+                <c16:uniqueId val="{00000001-9987-475D-ADBF-ECCD00FEC59C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2137,7 +2731,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-D945-4E40-B5E0-0CFE830A0642}"/>
+                <c16:uniqueId val="{00000003-9987-475D-ADBF-ECCD00FEC59C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2278,7 +2872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D945-4E40-B5E0-0CFE830A0642}"/>
+              <c16:uniqueId val="{00000005-9987-475D-ADBF-ECCD00FEC59C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2467,6 +3061,493 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Best to Worst</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> performing Sales Reason excluding No Reason Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-062D-48A0-BA5D-731C1600EEDE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-062D-48A0-BA5D-731C1600EEDE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Question 3'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Price</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>On Promotion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manufacturer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quality</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Review</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Television  Advertisement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Question 3'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12128306.4432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7029821.1380000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6627925.0045999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6132636.0083999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1872844.6283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274574.13650000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30360.805899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-062D-48A0-BA5D-731C1600EEDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="253847536"/>
+        <c:axId val="253848784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="253847536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253848784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253848784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253847536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3355,7 +4436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4012,1729 +5093,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-84E2-4B84-8845-34A22163A1AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="699512880"/>
-        <c:axId val="699514960"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="699512880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="699514960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-        <c:majorUnit val="1"/>
-        <c:majorTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="699514960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="699512880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200"/>
-              <a:t>each cards and without card sale for each month</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Question_5!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saleByVista</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Question_5!$C$2:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>37073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37622</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38169</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Question_5!$N$2:$N$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>357388.03279999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>484251.33730000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>523652.14520000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>670404.12620000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>680523.09329999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>810375.28370000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>428218.3762</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>520487.49729999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>571906.44090000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>609591.6459</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>549254.59550000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>625219.77560000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1240079.0475999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1244124.0882000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>874645.99479999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1005746.5534</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1093220.0452000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>703830.24829999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>817587.35699999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>982362.48100000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>460438.11009999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1033302.871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1158596.4271</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>639602.03870000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1256848.6725999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1953687.3388</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1547771.6235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1187387.0273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1616940.3051</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1626086.81</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1094405.9549</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1465075.3799000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1201826.6827</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1209132.9416</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1744148.4138</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1510137.6646</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>113893.9917</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2937.6547999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C46C-46E0-A20B-F934C4E3B55C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Question_5!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saleByDistinguish</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Question_5!$C$2:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>37073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37622</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38169</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Question_5!$P$2:$P$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>173532.06419999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>878644.11470000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>445399.41619999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>224176.18119999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>977701.85739999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>703805.79020000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>285389.98320000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>828710.1041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>594154.70220000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>228963.49280000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1039606.091</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>559838.75040000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>679817.96039999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1203741.5395</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>678725.37520000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>455170.88860000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1006158.0004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>582869.02119999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>364721.08960000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>799774.7757</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>499270.09590000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>520638.35800000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1019535.8694</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>587972.93850000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1139343.6387</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1523928.3133</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1184017.2663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1026871.7603</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1305496.3149000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1113287.0016000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>892561.46310000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1108003.0443</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>993972.09640000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1162505.9701</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1478236.7213999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1269761.9993</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>135427.85769999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3986.9409999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C46C-46E0-A20B-F934C4E3B55C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Question_5!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saleByColonialVoice</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Question_5!$C$2:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>37073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37622</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38169</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Question_5!$R$2:$R$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>306033.5673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>545910.99109999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>767893.67460000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>437941.70890000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>828672.01760000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1027255.91</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>601403.10309999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>733356.29020000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>989398.49939999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585543.89280000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1028978.2391</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>878513.94380000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1296263.514</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1383906.5763999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1602495.5449999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>865549.92740000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1103754.9447000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1314235.0937000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>613018.53419999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>876483.77419999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>969564.4031</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>869527.04709999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1024865.8115</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1196150.9865999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1664831.7154999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1608765.446</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2350349.2667999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1433440.6361</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1394758.1694</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2160100.8898</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1171565.5870000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1243228.6939999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1742989.9095000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1537954.4044999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1522499.1897</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2248668.7130999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>149961.5808</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3271.1217999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C46C-46E0-A20B-F934C4E3B55C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Question_5!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saleBySuperiorCard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Question_5!$C$2:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>37073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37622</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38169</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Question_5!$T$2:$T$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>186833.54060000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>690317.94319999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>319800.53869999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>324556.84009999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1151643.8713</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>463614.98369999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>319284.99680000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>977159.76500000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>480224.0159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>412783.4019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1168546.7929</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>390100.96720000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>587634.66119999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1553998.3477</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1084568.6422999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>507189.54369999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1208368.8184</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>854365.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>457638.19640000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1003389.5000999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>615888.41040000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>568006.24239999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1211413.4790000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>772612.23829999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>490983.74920000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1644078.8008000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1637579.1775</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>498011.5232</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1507588.3959999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1545335.7507</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>546973.28599999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1312793.3973999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1263238.2467</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>624312.15960000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1699004.115</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1578848.9169000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>133545.03750000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3133.4719</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C46C-46E0-A20B-F934C4E3B55C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Question_5!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>saleByOther</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Question_5!$C$2:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>37073</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37257</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37316</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37622</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37681</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37742</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37865</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37987</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>38108</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38139</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38169</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Question_5!$V$2:$V$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>11664.9658</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19545.317599999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24718.602200000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27453.294399999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38948.885799999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47223.236400000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23526.931</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19769.941999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37589.850400000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21890.453399999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43844.752200000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40225.820599999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36315.733699999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22358.532999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56557.054100000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12524.2572</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5829.3594000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>69508.895099999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14470.279500000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22867.842100000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>58139.658600000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31440.341100000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23044.7857</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>70704.842600000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>47605.614099999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45298.757799999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>48265.639000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53030.443399999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44757.230799999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>65908.511799999993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>76415.7356</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>57482.201399999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>68949.725900000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75734.514899999995</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>92766.674299999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>69051.230599999995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16516.900300000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>360.05340000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5990,7 +5348,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>Number of sales made by each card and without card for each month</a:t>
+              <a:t>each cards and without card sale for each month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6041,11 +5399,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$M$1</c:f>
+              <c:f>Question_5!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleByVista</c:v>
+                  <c:v>saleByVista</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6193,123 +5551,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$M$2:$M$39</c:f>
+              <c:f>Question_5!$N$2:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>357388.03279999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>484251.33730000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>523652.14520000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>670404.12620000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>680523.09329999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>810375.28370000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>428218.3762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>520487.49729999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>571906.44090000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>609591.6459</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>549254.59550000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68</c:v>
+                  <c:v>625219.77560000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86</c:v>
+                  <c:v>1240079.0475999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99</c:v>
+                  <c:v>1244124.0882000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>874645.99479999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>1005746.5534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>1093220.0452000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>115</c:v>
+                  <c:v>703830.24829999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85</c:v>
+                  <c:v>817587.35699999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101</c:v>
+                  <c:v>982362.48100000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91</c:v>
+                  <c:v>460438.11009999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77</c:v>
+                  <c:v>1033302.871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>108</c:v>
+                  <c:v>1158596.4271</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>91</c:v>
+                  <c:v>639602.03870000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>138</c:v>
+                  <c:v>1256848.6725999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>351</c:v>
+                  <c:v>1953687.3388</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>424</c:v>
+                  <c:v>1547771.6235</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>395</c:v>
+                  <c:v>1187387.0273</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>429</c:v>
+                  <c:v>1616940.3051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>510</c:v>
+                  <c:v>1626086.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>503</c:v>
+                  <c:v>1094405.9549</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>499</c:v>
+                  <c:v>1465075.3799000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>494</c:v>
+                  <c:v>1201826.6827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>482</c:v>
+                  <c:v>1209132.9416</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>558</c:v>
+                  <c:v>1744148.4138</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>555</c:v>
+                  <c:v>1510137.6646</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>269</c:v>
+                  <c:v>113893.9917</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>47</c:v>
+                  <c:v>2937.6547999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6317,7 +5675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D79B-49CB-8F84-94E2E5087ACE}"/>
+              <c16:uniqueId val="{00000000-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6326,11 +5684,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$O$1</c:f>
+              <c:f>Question_5!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleByDistinguish</c:v>
+                  <c:v>saleByDistinguish</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6478,123 +5836,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$O$2:$O$39</c:f>
+              <c:f>Question_5!$P$2:$P$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>173532.06419999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>878644.11470000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>445399.41619999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>224176.18119999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>977701.85739999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>703805.79020000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>285389.98320000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53</c:v>
+                  <c:v>828710.1041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67</c:v>
+                  <c:v>594154.70220000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>228963.49280000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78</c:v>
+                  <c:v>1039606.091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>559838.75040000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>679817.96039999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>1203741.5395</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68</c:v>
+                  <c:v>678725.37520000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>455170.88860000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84</c:v>
+                  <c:v>1006158.0004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99</c:v>
+                  <c:v>582869.02119999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>364721.08960000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92</c:v>
+                  <c:v>799774.7757</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82</c:v>
+                  <c:v>499270.09590000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>520638.35800000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>132</c:v>
+                  <c:v>1019535.8694</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94</c:v>
+                  <c:v>587972.93850000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>150</c:v>
+                  <c:v>1139343.6387</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>375</c:v>
+                  <c:v>1523928.3133</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>449</c:v>
+                  <c:v>1184017.2663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>452</c:v>
+                  <c:v>1026871.7603</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>438</c:v>
+                  <c:v>1305496.3149000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>524</c:v>
+                  <c:v>1113287.0016000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>472</c:v>
+                  <c:v>892561.46310000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>517</c:v>
+                  <c:v>1108003.0443</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>516</c:v>
+                  <c:v>993972.09640000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>472</c:v>
+                  <c:v>1162505.9701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>586</c:v>
+                  <c:v>1478236.7213999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>571</c:v>
+                  <c:v>1269761.9993</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>304</c:v>
+                  <c:v>135427.85769999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52</c:v>
+                  <c:v>3986.9409999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6602,7 +5960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D79B-49CB-8F84-94E2E5087ACE}"/>
+              <c16:uniqueId val="{00000001-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6611,11 +5969,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$Q$1</c:f>
+              <c:f>Question_5!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleByColonialVoice</c:v>
+                  <c:v>saleByColonialVoice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6763,123 +6121,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$Q$2:$Q$39</c:f>
+              <c:f>Question_5!$R$2:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>306033.5673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>545910.99109999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>767893.67460000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>437941.70890000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>828672.01760000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>1027255.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>601403.10309999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>733356.29020000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>989398.49939999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65</c:v>
+                  <c:v>585543.89280000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92</c:v>
+                  <c:v>1028978.2391</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60</c:v>
+                  <c:v>878513.94380000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>1296263.514</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94</c:v>
+                  <c:v>1383906.5763999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96</c:v>
+                  <c:v>1602495.5449999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>865549.92740000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74</c:v>
+                  <c:v>1103754.9447000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114</c:v>
+                  <c:v>1314235.0937000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85</c:v>
+                  <c:v>613018.53419999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88</c:v>
+                  <c:v>876483.77419999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103</c:v>
+                  <c:v>969564.4031</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101</c:v>
+                  <c:v>869527.04709999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98</c:v>
+                  <c:v>1024865.8115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>119</c:v>
+                  <c:v>1196150.9865999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136</c:v>
+                  <c:v>1664831.7154999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>368</c:v>
+                  <c:v>1608765.446</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>454</c:v>
+                  <c:v>2350349.2667999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>429</c:v>
+                  <c:v>1433440.6361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>463</c:v>
+                  <c:v>1394758.1694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>529</c:v>
+                  <c:v>2160100.8898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>467</c:v>
+                  <c:v>1171565.5870000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>466</c:v>
+                  <c:v>1243228.6939999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>515</c:v>
+                  <c:v>1742989.9095000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>488</c:v>
+                  <c:v>1537954.4044999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>550</c:v>
+                  <c:v>1522499.1897</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>590</c:v>
+                  <c:v>2248668.7130999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>328</c:v>
+                  <c:v>149961.5808</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52</c:v>
+                  <c:v>3271.1217999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6887,7 +6245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D79B-49CB-8F84-94E2E5087ACE}"/>
+              <c16:uniqueId val="{00000002-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6896,11 +6254,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$S$1</c:f>
+              <c:f>Question_5!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleBySuperiorCard</c:v>
+                  <c:v>saleBySuperiorCard</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7048,123 +6406,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$S$2:$S$39</c:f>
+              <c:f>Question_5!$T$2:$T$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>186833.54060000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>690317.94319999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>319800.53869999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>324556.84009999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>1151643.8713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>463614.98369999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>319284.99680000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65</c:v>
+                  <c:v>977159.76500000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68</c:v>
+                  <c:v>480224.0159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>412783.4019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>1168546.7929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62</c:v>
+                  <c:v>390100.96720000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67</c:v>
+                  <c:v>587634.66119999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>1553998.3477</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>1084568.6422999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>507189.54369999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>1208368.8184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>854365.95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79</c:v>
+                  <c:v>457638.19640000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99</c:v>
+                  <c:v>1003389.5000999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86</c:v>
+                  <c:v>615888.41040000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>568006.24239999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114</c:v>
+                  <c:v>1211413.4790000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116</c:v>
+                  <c:v>772612.23829999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114</c:v>
+                  <c:v>490983.74920000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>350</c:v>
+                  <c:v>1644078.8008000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>423</c:v>
+                  <c:v>1637579.1775</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>420</c:v>
+                  <c:v>498011.5232</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>432</c:v>
+                  <c:v>1507588.3959999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>573</c:v>
+                  <c:v>1545335.7507</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>471</c:v>
+                  <c:v>546973.28599999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>487</c:v>
+                  <c:v>1312793.3973999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>498</c:v>
+                  <c:v>1263238.2467</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>522</c:v>
+                  <c:v>624312.15960000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>614</c:v>
+                  <c:v>1699004.115</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>572</c:v>
+                  <c:v>1578848.9169000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>323</c:v>
+                  <c:v>133545.03750000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>53</c:v>
+                  <c:v>3133.4719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7172,7 +6530,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D79B-49CB-8F84-94E2E5087ACE}"/>
+              <c16:uniqueId val="{00000003-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7181,11 +6539,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$U$1</c:f>
+              <c:f>Question_5!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleByOther</c:v>
+                  <c:v>saleByOther</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7333,123 +6691,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$U$2:$U$39</c:f>
+              <c:f>Question_5!$V$2:$V$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>11664.9658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>19545.317599999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>24718.602200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>27453.294399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>38948.885799999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>47223.236400000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>23526.931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>19769.941999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>37589.850400000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>21890.453399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>43844.752200000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>40225.820599999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>36315.733699999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>22358.532999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>56557.054100000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>12524.2572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>5829.3594000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>69508.895099999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>14470.279500000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>22867.842100000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>58139.658600000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>31440.341100000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>23044.7857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12</c:v>
+                  <c:v>70704.842600000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>47605.614099999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53</c:v>
+                  <c:v>45298.757799999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>48265.639000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67</c:v>
+                  <c:v>53030.443399999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>44757.230799999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>65908.511799999993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85</c:v>
+                  <c:v>76415.7356</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65</c:v>
+                  <c:v>57482.201399999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77</c:v>
+                  <c:v>68949.725900000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>94</c:v>
+                  <c:v>75734.514899999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>92766.674299999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72</c:v>
+                  <c:v>69051.230599999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47</c:v>
+                  <c:v>16516.900300000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>360.05340000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7457,7 +6815,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D79B-49CB-8F84-94E2E5087ACE}"/>
+              <c16:uniqueId val="{00000004-C46C-46E0-A20B-F934C4E3B55C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7713,15 +7071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>Total</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200" baseline="0"/>
-              <a:t> payment done without card </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="3200"/>
-              <a:t>for each month</a:t>
+              <a:t>Number of sales made by each card and without card for each month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7768,15 +7118,585 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$V$1</c:f>
+              <c:f>Question_5!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>saleByOther</c:v>
+                  <c:v>NoOfsaleByVista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$M$2:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D79B-49CB-8F84-94E2E5087ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleByDistinguish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$O$2:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D79B-49CB-8F84-94E2E5087ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleByColonialVoice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7924,123 +7844,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$V$2:$V$39</c:f>
+              <c:f>Question_5!$Q$2:$Q$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>11664.9658</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19545.317599999998</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24718.602200000001</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27453.294399999999</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38948.885799999996</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47223.236400000002</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23526.931</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19769.941999999999</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37589.850400000003</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21890.453399999999</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43844.752200000003</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40225.820599999999</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36315.733699999997</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22358.532999999999</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56557.054100000001</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12524.2572</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5829.3594000000003</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69508.895099999994</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14470.279500000001</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22867.842100000002</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58139.658600000002</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31440.341100000001</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23044.7857</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70704.842600000004</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47605.614099999999</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45298.757799999999</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48265.639000000003</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>53030.443399999996</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44757.230799999998</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65908.511799999993</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76415.7356</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57482.201399999998</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68949.725900000005</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75734.514899999995</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92766.674299999999</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69051.230599999995</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16516.900300000001</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>360.05340000000001</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8048,7 +7968,577 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FDD-427E-8508-83504ED8DEC0}"/>
+              <c16:uniqueId val="{00000002-D79B-49CB-8F84-94E2E5087ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleBySuperiorCard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$S$2:$S$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D79B-49CB-8F84-94E2E5087ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleByOther</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$U$2:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D79B-49CB-8F84-94E2E5087ACE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8304,15 +8794,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>Number of sales made without</a:t>
+              <a:t>Total</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="3200" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> payment done without card </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>card for each month</a:t>
+              <a:t>for each month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8359,15 +8849,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_5!$U$1</c:f>
+              <c:f>Question_5!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoOfsaleByOther</c:v>
+                  <c:v>saleByOther</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8375,7 +8865,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8515,123 +9005,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Question_5!$U$2:$U$39</c:f>
+              <c:f>Question_5!$V$2:$V$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>11664.9658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>19545.317599999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>24718.602200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>27453.294399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>38948.885799999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>47223.236400000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>23526.931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>19769.941999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>37589.850400000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>21890.453399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>43844.752200000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>40225.820599999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>36315.733699999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>22358.532999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>56557.054100000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>12524.2572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>5829.3594000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>69508.895099999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>14470.279500000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>22867.842100000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>58139.658600000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>31440.341100000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13</c:v>
+                  <c:v>23044.7857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12</c:v>
+                  <c:v>70704.842600000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>47605.614099999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53</c:v>
+                  <c:v>45298.757799999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>48265.639000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67</c:v>
+                  <c:v>53030.443399999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>44757.230799999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>92</c:v>
+                  <c:v>65908.511799999993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>85</c:v>
+                  <c:v>76415.7356</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65</c:v>
+                  <c:v>57482.201399999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77</c:v>
+                  <c:v>68949.725900000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>94</c:v>
+                  <c:v>75734.514899999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>92766.674299999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72</c:v>
+                  <c:v>69051.230599999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47</c:v>
+                  <c:v>16516.900300000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>360.05340000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,7 +9129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3030-4E68-942E-BD081794709B}"/>
+              <c16:uniqueId val="{00000000-9FDD-427E-8508-83504ED8DEC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8855,6 +9345,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9710,8 +10240,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9733,11 +10263,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
             <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9814,7 +10344,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -9824,7 +10354,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -9834,7 +10364,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -9854,7 +10384,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -9873,7 +10403,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9910,7 +10440,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9934,7 +10464,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -9953,7 +10483,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9971,7 +10501,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -9979,7 +10509,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9998,7 +10528,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -10016,7 +10546,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10035,7 +10565,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10064,7 +10594,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -10072,7 +10602,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10142,7 +10672,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -10168,7 +10698,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10200,13 +10730,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10702,8 +11232,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10725,11 +11255,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
             <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10806,7 +11336,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -10816,7 +11346,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -10826,7 +11356,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -10846,7 +11376,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10865,7 +11395,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10902,7 +11432,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10926,7 +11456,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10945,7 +11475,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10963,7 +11493,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -10971,7 +11501,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10990,7 +11520,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
@@ -11008,7 +11538,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11027,7 +11557,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -11056,7 +11586,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -11064,7 +11594,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11134,7 +11664,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -11160,7 +11690,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11192,7 +11722,503 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -13857,11 +14883,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD901E15-F02F-43F6-B59A-8AAD19559225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FD715C-21AE-4F92-8652-CD7B70ED87FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13870,6 +14898,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3023810</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6584645B-F42C-4603-8047-F422A4764046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14114,6 +15180,84 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Question 3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>NULL</v>
+          </cell>
+          <cell r="C2">
+            <v>115922288.767</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Price</v>
+          </cell>
+          <cell r="C3">
+            <v>12128306.4432</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>On Promotion</v>
+          </cell>
+          <cell r="C4">
+            <v>7029821.1380000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Manufacturer</v>
+          </cell>
+          <cell r="C5">
+            <v>6627925.0045999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Quality</v>
+          </cell>
+          <cell r="C6">
+            <v>6132636.0083999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Review</v>
+          </cell>
+          <cell r="C7">
+            <v>1872844.6283</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Other</v>
+          </cell>
+          <cell r="C8">
+            <v>274574.13650000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Television  Advertisement</v>
+          </cell>
+          <cell r="C9">
+            <v>30360.805899999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14799,19 +15943,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C27E2FD-969C-4754-BEC9-CC00A75AC250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BC179B-3041-47AC-9929-958E03CA8C73}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -15873,7 +17017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9BEEDD-5BDB-4985-8A6D-A1A3AE696E53}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AW99" sqref="AW99"/>
     </sheetView>
   </sheetViews>

--- a/sql project.xlsx
+++ b/sql project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\GitHub\SQL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E73E9-F1E3-4394-A50A-84F1CCB75342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FD65A-C52C-4AAB-82F0-EE73B6812B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{0596B740-CD83-43B0-BD32-0E2031BF22B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Question_4" sheetId="4" r:id="rId4"/>
     <sheet name="Question_5" sheetId="5" r:id="rId5"/>
     <sheet name="Question_6" sheetId="7" r:id="rId6"/>
+    <sheet name="Question_7" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="138">
   <si>
     <t>ProductID</t>
   </si>
@@ -394,6 +395,69 @@
   <si>
     <t>United Kingdom</t>
   </si>
+  <si>
+    <t>DeptGroupName</t>
+  </si>
+  <si>
+    <t>DeptName</t>
+  </si>
+  <si>
+    <t>AverageTenure</t>
+  </si>
+  <si>
+    <t>Executive General and Administration</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Facilities and Maintenance</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Information Services</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>Shipping and Receiving</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Production Control</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Document Control</t>
+  </si>
+  <si>
+    <t>Research and Development</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Tool Design</t>
+  </si>
+  <si>
+    <t>Sales and Marketing</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -526,11 +596,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -554,6 +639,9 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13892,6 +13980,920 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avareage Tenure of Employee Per Department</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27428678214133595"/>
+          <c:y val="4.393450250536865E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5153811242383458E-2"/>
+          <c:y val="0.24686473109028848"/>
+          <c:w val="0.60779814347904093"/>
+          <c:h val="0.46555084692953819"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF33CC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF33CC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-A813-41FC-8229-7534061EB0EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Question_7!$B$2:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Executive</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facilities and Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Human Resources</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Information Services</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Purchasing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Shipping and Receiving</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Production</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Production Control</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Document Control</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Quality Assurance</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Engineering</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Research and Development</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tool Design</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_7!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9060</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-A813-41FC-8229-7534061EB0EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="519882096"/>
+        <c:axId val="519894576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519882096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519894576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="519894576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519882096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -21259,6 +22261,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -27982,6 +29024,502 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -32322,14 +33860,821 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244926</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>580570</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2DD638D-365C-4641-87D0-ED8C39D6B02F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69205</cdr:x>
+      <cdr:y>0.33604</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97926</cdr:x>
+      <cdr:y>0.79545</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75D2F16-185F-4CE0-A78E-2A31361A8634}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6962212" y="1877786"/>
+          <a:ext cx="2889362" cy="2567213"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" lIns="91440" tIns="91440" rIns="91440" bIns="91440" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Executive General and Administration</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█ Inventory Management</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█ Manufacturing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█ Quality Assurance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█ Research and Development</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF33CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF33CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>█</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF33CC"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>█ Sales and Marketing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF33CC"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69216</cdr:x>
+      <cdr:y>0.23575</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97936</cdr:x>
+      <cdr:y>0.33543</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98E6846-0566-4CA8-ABEB-B04448529BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6957942" y="1331356"/>
+          <a:ext cx="2887168" cy="562887"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" lIns="91440" tIns="91440" rIns="91440" bIns="91440" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Department Groups</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Question_6"/>
+      <sheetName val="Question_7"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Executive</v>
+          </cell>
+          <cell r="C2">
+            <v>8187</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Facilities and Maintenance</v>
+          </cell>
+          <cell r="C3">
+            <v>8749</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Finance</v>
+          </cell>
+          <cell r="C4">
+            <v>8391</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Human Resources</v>
+          </cell>
+          <cell r="C5">
+            <v>9076</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Information Services</v>
+          </cell>
+          <cell r="C6">
+            <v>9067</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Purchasing</v>
+          </cell>
+          <cell r="C7">
+            <v>8003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Shipping and Receiving</v>
+          </cell>
+          <cell r="C8">
+            <v>9079</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Production</v>
+          </cell>
+          <cell r="C9">
+            <v>8980</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Production Control</v>
+          </cell>
+          <cell r="C10">
+            <v>8907</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Document Control</v>
+          </cell>
+          <cell r="C11">
+            <v>9060</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Quality Assurance</v>
+          </cell>
+          <cell r="C12">
+            <v>7764</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Engineering</v>
+          </cell>
+          <cell r="C13">
+            <v>7912</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Research and Development</v>
+          </cell>
+          <cell r="C14">
+            <v>9039</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Tool Design</v>
+          </cell>
+          <cell r="C15">
+            <v>8694</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Marketing</v>
+          </cell>
+          <cell r="C16">
+            <v>8006</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Sales</v>
+          </cell>
+          <cell r="C17">
+            <v>8013</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -36785,7 +39130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A114AB-3FBB-4AC3-B172-73B78BAB7D65}">
   <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
@@ -46609,4 +48954,214 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C51AC-FA14-45FC-B285-AF570E29B7D5}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="23">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="23">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="23">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="23">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="23">
+        <v>9067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="23">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="23">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="23">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="23">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="23">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="23">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="23">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="23">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="23">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>8013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>